--- a/ParkYoungWoong/deep learning_DBSCAN_clusters.xlsx
+++ b/ParkYoungWoong/deep learning_DBSCAN_clusters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>num</t>
   </si>
@@ -28,63 +28,72 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['keras', 'caffe', 'handson-ml', 'pytorch-tutorial', 'data-science-ipython-notebooks', 'fastai', 'incubator-mxnet', 'awesome-deep-learning', 'CNTK', 'Paddle', 'netron', 'Dive-into-DL-PyTorch', 'cheatsheets-ai', 'Qix', 'deeplearning4j', 'Deep-Learning-with-TensorFlow-book', 'tensor2tensor', 'Machine-Learning-Tutorials', 'd2l-en', 'ML-NLP', 'deep_learning_object_detection', 'stanford-tensorflow-tutorials', 'mit-deep-learning-book-pdf', 'nlp-tutorial', 'deep-learning-drizzle', 'tflearn', 'mit-deep-learning', 'dgl', 'caffe2', 'autokeras', 'ludwig', 'tvm', '500-AI-Machine-learning-Deep-learning-Computer-vision-NLP-Projects-with-code', 'text_classification', 'tensorlayer', 'awesome-object-detection', 'trax', 'DeepLearning', 'deep-learning-coursera', 'models', 'MNN', 'DeepLearningFlappyBird', 'deepo', 'DeepSpeed', 'Paddle-Lite', 'chainer', 'h2o-3', 'DeepCTR', 'annotated_deep_learning_paper_implementations', 'pytorch-Deep-Learning', 'DeepPavlov', 'MMdnn', 'tiny-dnn', 'TTS', 'TopDeepLearning', 'machine-learning-mindmap', 'deep-learning-for-image-processing', 'keras-rl', 'jetson-inference', 'stanford-cs-230-deep-learning', 'introtodeeplearning', 'ASRT_SpeechRecognition', 'pwnagotchi', 'Stock-Prediction-Models', 'TensorRT', 'DeepLearning.ai-Summary', 'mace', 'tensorspace', 'AidLearning-FrameWork', 'deep-learning-v2-pytorch', 'neurojs', 'Ai-Learn', 'DeepLearningProject', 'VisualDL', 'DeepLearningZeroToAll', 'deep-learning-roadmap', 't81_558_deep_learning', 'DIGITS', 'tianshou', 'deep-reinforcement-learning', 'DeepLearning', 'einops', 'neon', 'pytorch-metric-learning', 'd2l-pytorch', 'Hub', 'Deep-Learning-Interview-Book', 'DALI', 'deep-high-resolution-net.pytorch', 'pointnet', 'graph-based-deep-learning-literature', 'Dive-into-DL-TensorFlow2.0', 'tensorrtx', 'Production-Level-Deep-Learning', 'Reinforcement-Learning', 'deepchem', 'Deep_reinforcement_learning_Course', 'TNN', 'Deep-Learning-Roadmap', 'Deep-Learning-in-Production', 'deep-learning-papers', 'deep-person-reid', 'ArtLine', 'deep-learning-model-convertor', 'dlwpt-code', 'Artificial-Intelligence-Deep-Learning-Machine-Learning-Tutorials', 'DeepLearning', 'LiteratureDL4Graph', 'open_model_zoo', 'deep-learning-keras-tensorflow', 'TTS', 'DeepQA', 'catalyst', 'oneflow', 'kaolin', 'MachineLearningNotebooks', 'deepjazz', 'nlp-architect', 'deep-learning-book', 'euler', 'layout-parser', 'deep-text-recognition-benchmark', 'pytorch-a2c-ppo-acktr-gail', 'porcupine', 'DeepLabCut', 'Deep-Learning-for-Recommendation-Systems', 'awesome-deeplearning-resources', 'interactive-deep-colorization', 'awesome-satellite-imagery-datasets', 'thinc', 'luminoth', 'imgclsmob', 'TensorFlow-and-DeepLearning-Tutorial', 'gluon-api', 'Girls-In-AI', 'deepdetect', 'awesome-deep-text-detection-recognition', 'code-of-learn-deep-learning-with-pytorch', 'DouZero', 'djl', 'awesome-deep-learning-music', 'pointnet2', 'DeepRL-Agents', 'tensorflow-speech-recognition', 'zhusuan', 'deep-learning-with-keras-notebooks', 'kcws', 'awesome-image-classification', 'ICCV2019-LearningToPaint', 'Deep-Learning-with-PyTorch-Tutorials', 'satellite-image-deep-learning', 'Deep-Learning-for-Tracking-and-Detection', 'turkce-yapay-zeka-kaynaklari', 'tensorflow_template_application', 'practical-machine-learning-with-python', 'benchm-ml', 'Deep-reinforcement-learning-with-pytorch', 'tensorflow-deep-learning', 'tinyflow', 'DeepLearningImplementations', 'Awesome-AutoDL', 'deepschool.io', 'DeepLearningForNLPInPytorch', 'DeepLearn', 'tensorflow-1.4-billion-password-analysis', 'ml-surveys', 'www.mlcompendium.com', 'NLP-Models-Tensorflow', 'DeepCTR-Torch', 'DeepRecommender', 'Papers-Literature-ML-DL-RL-AI', 'torch-points3d', 'bulbea', 'DeepLearning_tutorials', 'ios-learning-materials', 'deep-rl-tensorflow', 'determined', 'HyperLandmark', 'SparrowRecSys', 'BerryNet', 'deeptraffic', 'elephas', 'ML', 'CADL', 'delta', 'Awesome-Deep-Learning-Resources', 'chainercv', 'GDLnotes', 'Top-Deep-Learning', 'raster-vision', 'ElegantRL', 'grenade', 'Deep-Learning-for-Medical-Applications', 'deeplearning-mindmap', 'DeepAA', 'Knet.jl', 'Neural-Networks-on-Silicon', 'Deep-learning-with-cats', 'DeepMoji', 'AutoDL-Projects', 'deep-learning-time-series', 'dcgan-completion.tensorflow', 'petastorm', 'Getting-Things-Done-with-Pytorch', 'DLTK', 'Deep3DFaceReconstruction', 'distribution-is-all-you-need', 'noreward-rl', 'lectures-labs', 'dl-colab-notebooks', 'Interactive_Tools', 'torchio', 'AI-Chip', 'dl-visuals', 'deep-review', 'Personae', 'deep-head-pose', 'nlp_overview', 'Repo-2017', 'Advanced-Deep-Learning-with-Keras', 'fastai_deeplearn_part1', 'Deep-Tutorials-for-PyTorch', 'SoTA-Point-Cloud', 'Face-Mask-Detection', 'deep-q-learning', 'Research', 'DFace', 'Deep-Learning', 'DeepRec', 'awesome-DeepLearning', 'text_renderer', 'ILearnDeepLearning.py', 'DnCNN', 'chainerrl', 'tsai', 'Deep-Learning-Book-Chapter-Summaries', 'DeepAudioClassification', 'SLM-Lab', 'service-streamer', 'morph-net', 'awesome-ai-ml-dl', 'PyRetri', 'Deep-Learning-TensorFlow', 'yt-channels-DS-AI-ML-CS', 'DIG', 'pytorch-a3c', 'dl-4-tsc', 'AutoDL', 'ktrain', 'Deep-Reinforcement-Learning-for-Automated-Stock-Trading-Ensemble-Strategy-ICAIF-2020', 'variational-autoencoder', 'Deep-Learning-Experiments', 'DL-workshop-series', 'Arraymancer', 'neuropod', 'NYU-DLSP21', 'cogdl', 'hivemind', 'RecSys2019_DeepLearning_Evaluation', 'Andrew-Ng-Deep-Learning-notes', 'btgym', 'deep-motion-editing', 'DeepTables', 'gans-in-action', 'DeepRL-Tutorials', 'STT', 'DeepCamera', 'torchMoji', 'MedicalZooPytorch', 'AdderNet', 'labml', 'kur', 'Coloring-greyscale-images', 'Deep-Learning-Project-Template', 'cifar-10-cnn', 'BMW-TensorFlow-Training-GUI', 'decord', 'flow-forecast', 'swift-apis', 'Speech-Emotion-Analyzer', 'pytorch-rl', 'awesome-deep-trading', 'deep-ctr-prediction', 'deep_learning_and_the_game_of_go', 'PassGAN', 'awesome-tensor-compilers', 'HRNet-Facial-Landmark-Detection', 'Hyperparameter-Optimization-of-Machine-Learning-Algorithms', 'DeepLearning.scala', 'PyTorch-RL', 'tensorflow-tutorial', 'tensorflow-101', 'pysc2-examples', 'deepforge', 'deepxde', 'Text-Classification-Pytorch', 'tez', '3D-convolutional-speaker-recognition', 'Deep_Metric', 'RLSeq2Seq', 'AI-Series', 'Deep-Learning-For-Hackers', 'Hands-On-Reinforcement-Learning-With-Python', 'DL-NLP-Readings', 'pytorch-widedeep', 'coursera-deep-learning-specialization', 'DSOD', 'KotlinDL', 'DeepJ', 'ufldl_tutorial', 'china-dictatorship', 'course20', 'deep-learning-guide', 'CS224n', 'food-101-keras', 'neoml', 'TonY', 'FfDL', 'deepmd-kit', 'dcscn-super-resolution', 'NeuralDialogPapers', 'RedisAI', 'bolt', 'interview-questions', 'elasticdl', 'Deep-Learning-with-PyTorch-Chinese', 'awesome-neural-ode', 'deep-trading-agent', 'dll', 'deep-learning-from-scratch', 'dist-keras', 'bdl-benchmarks', 'mario-ai', 'music-generation-with-DL', 'visual-pushing-grasping', 'webdataset', 'libxsmm', 'BMW-YOLOv4-Training-Automation', 'async_deep_reinforce', 'awesome-emdl', 'Emotion-detection', 'How-to-learn-Deep-Learning', 'CryptocurrencyPrediction', 'Trending-Deep-Learning', 'papers', 'VTuber_Unity', 'notebooks', 'SiamTrackers', 'cleanrl', 'faced', 'Awesome-Cybersecurity-Datasets', 'alfred', 'music_recommender', 'Learning-Deep-Learning', 'TF-Tutorials', 'deep-learning-book', 'dlwin', 'reaver', 'awesome_deep_learning_interpretability', 'Awsome-Deep-Learning-for-Video-Analysis', 'deepsvg', 'Practical-Deep-Learning-Book', 'autonomous-learning-library', 'chainer-chemistry', 'PaddleVideo', 'Deep-Metric-Learning-Baselines', 'T2F', 'deep-learning-bitcoin', 'Deep-Learning-In-Production', 'blitz-bayesian-deep-learning', 'UCR_Time_Series_Classification_Deep_Learning_Baseline', 'monk_v1', 'IRCNN', 'Awesome-Image-Colorization', 'deep-learning-resources', 'Awesome-Deep-Learning-Papers-for-Search-Recommendation-Advertising', 'TASO', 'doctr', 'sktime-dl', 'SOD-CNNs-based-code-summary-', 'NeuralPDE.jl', 'DeepPurpose', 'Neuraxle', 'pytorch_tabular', 'Forward', 'rl-portfolio-management', 'Federated-Learning-PyTorch', 'reinforcement-learning-algorithms', 'Fast-SRGAN', 'torch-light', 'deep-learning-traffic-lights', 'DeepHash', 'Urban-Sound-Classification', 'Adlik', 'X2Paddle', 'Dataset_Synthesizer', 'hedwig', 'crypto-rl', 'PyTorch', 'DeepDarkFantasy', 'code_search', 'deer', 'torchdistill', 'deep-transfer-learning', 'Deep-Learning-Paper-Review-and-Practice', 'rhino', 'bayes-nn', 'deep-learning-from-scratch-3', 'deep-learning-wizard', 'ReID-Survey', 'awesome-very-deep-learning', 'Sequence-Semantic-Embedding', 'Daily-DeepLearning', 'deepstock', 'Deep-Learning-Machine-Learning-Stock', 'deepdow', 'octnet', 'NLP_Quickbook', 'pvcnn', 'nncase', '3D-Deepbox', 'Change-Detection-Review', 'Flappy-bird-deep-Q-learning-pytorch', 'Deep-learning-in-cloud', 'cheetah', 'Deep-Reinforcement-Learning-Survey', 'deep_learning_NLP', 'DeepPath', 'huskarl', 'OpenChem', 'FastAI.jl', 'DeepRL-TensorFlow2', 'dl_tutorials_10weeks', 'interactive-machine-learning-list', 'fire-detection-cnn', 'bayesian-neural-network-blogpost', 'pytorch-rl', 'natural-language-processing', 'deep-learning-uncertainty', 'First-steps-towards-Deep-Learning', 'trading-bot', 'ConvNetSharp', 'pulp-dronet', 'spotty', 'DRBox', 'megvii-pku-dl-course', 'd3rlpy', 'ColossalAI', 'gdrl', 'deep-learning-localization-mapping', 'OpenLearning4DeepRecsys', 'deep_rl', 'useR-machine-learning-tutorial', 'Deep-Learning-Tricks', 'RMDL', 'Easy-deep-learning-with-Keras', 'DeepTraffic', 'Coursera-Deep-Learning-deeplearning.ai', 'deep-learning-nano-foundation', 'InnerEye-DeepLearning', 'pcam', '3D-Reconstruction-with-Deep-Learning-Methods', 'yoloface', 'irl-imitation', 'tf_chatbot_seq2seq_antilm', 'RL-Chatbot', 'tensorboard', 'Basic-Mathematics-for-Machine-Learning', 'DeepXi', 'onyx', 'Tetris-deep-Q-learning-pytorch', 'pycadl', 'deepsnap', 'magnet', 'SiaNet', 'torch-audiomentations', 'carefree-learn', 'Emotion', 'artificio', 'deep-active-learning', 'tflite_gles_app', 'Deep-Learning', 'flowpoints_ml', 'awesome-computer-vision-models', 'powerful-benchmarker', 'qkeras', 'Ensemble-Pytorch', 'pytorch-vsumm-reinforce', 'pytorch-nlp-notebooks', 'SODsurvey', 'rl4j', 'DeepReg', 'Audio-Classification', '300Days__MachineLearningDeepLearning', 'NLP101', 'PaddleHelix', 'jeelizAR', 'deepC', 'tensorflow-resources', 'hyperboard', 'DeepLearningNotes', 'CNTK-World', 'awesome-ehr-deeplearning', 'CodeFun', 'pyvarinf', 'torchsat', 'dlcampjeju', 'amazon-rekognition-video-analyzer', 'deep-diamond', 'deepkit-ml', 'CrowdNav', 'delft', 'models', 'dliss-tutorial', 'handful-of-trials', 'framework-determinism', 'vime', 'Depth-VO-Feat', 'DnCNN-tensorflow', 'keras-multiprocess-image-data-generator', 'norse', 'DeepHash-Papers', 'tensorflow-image-detection', 'Awesome-Distributed-Deep-Learning', 'Speech-enhancement', 'pytorch-dqn', 'sednn', 'EEG-DL', 'deep-learning-containers', 'BitcoinForecast', 'Xvision', 'BayesianDeepLearning-Survey', 'LanczosNetwork', 'uvadlc_notebooks', 'thinking-in-tensors-writing-in-pytorch', 'AgentNet', 'DeepPoseKit', 'awesome-deep-rl', 'deepnet', 'tensorflow-gpu-install-ubuntu-16.04', 'selene', 'elegy', 'deep-learning-nlp-rl-papers', 'Hands-On-Deep-Learning-Algorithms-with-Python', 'MyDeepLearning', 'rlgraph', 'Deep-Reinforcement-Learning-Algorithms', 'deep-rl', 'pytorch-DRL', 'MusicGenerator', 'DeepPiCar', 'Time-series---deep-learning---state-of-the-art', 'DeepLearningWithTF2.0', 'DREAMPlace', 'L2C', 'Jupyter', 'Car-Recognition']</t>
-  </si>
-  <si>
-    <t>['Deep-Learning-Papers-Reading-Roadmap', 'awesome-deep-learning-papers', 'ML-From-Scratch', 'singa', 'Rainbow', 'fsdl-text-recognizer-project', 'DLInterview', 'course-gitbook', 'intro-to-dl', 'Deep-Learning-NLP', 'cn-deep-learning', 'DeepLearningProjectWorkflow', 'detection-2016-nipsws']</t>
+    <t>['keras', 'handson-ml', 'awesome-deep-learning-papers', 'pytorch-tutorial', 'fastai', 'ML-From-Scratch', 'incubator-mxnet', 'awesome-deep-learning', 'CNTK', 'Paddle', 'netron', 'Dive-into-DL-PyTorch', 'cheatsheets-ai', 'Qix', 'deeplearning4j', 'Deep-Learning-with-TensorFlow-book', 'tensor2tensor', 'Machine-Learning-Tutorials', 'd2l-en', 'ML-NLP', 'deep_learning_object_detection', 'stanford-tensorflow-tutorials', 'mit-deep-learning-book-pdf', 'nlp-tutorial', 'deep-learning-drizzle', 'tflearn', 'mit-deep-learning', 'dgl', 'caffe2', 'autokeras', 'ludwig', 'tvm', '500-AI-Machine-learning-Deep-learning-Computer-vision-NLP-Projects-with-code', 'text_classification', 'tensorlayer', 'DeepLearning', 'trax', 'awesome-object-detection', 'deep-learning-coursera', 'models', 'MNN', 'DeepLearningFlappyBird', 'deepo', 'DeepSpeed', 'Paddle-Lite', 'chainer', 'h2o-3', 'DeepCTR', 'annotated_deep_learning_paper_implementations', 'pytorch-Deep-Learning', 'DeepPavlov', 'MMdnn', 'tiny-dnn', 'deep-learning-for-image-processing', 'TTS', 'TopDeepLearning', 'machine-learning-mindmap', 'keras-rl', 'jetson-inference', 'stanford-cs-230-deep-learning', 'introtodeeplearning', 'ASRT_SpeechRecognition', 'pwnagotchi', 'Stock-Prediction-Models', 'TensorRT', 'DeepLearning.ai-Summary', 'mace', 'AidLearning-FrameWork', 'tensorspace', 'deep-learning-v2-pytorch', 'neurojs', 'Ai-Learn', 'DeepLearningProject', 'VisualDL', 'DeepLearningZeroToAll', 'deep-learning-roadmap', 't81_558_deep_learning', 'DIGITS', 'tianshou', 'deep-reinforcement-learning', 'DeepLearning', 'einops', 'pytorch-metric-learning', 'neon', 'd2l-pytorch', 'Hub', 'Deep-Learning-Interview-Book', 'DALI', 'deep-high-resolution-net.pytorch', 'pointnet', 'graph-based-deep-learning-literature', 'tensorrtx', 'Dive-into-DL-TensorFlow2.0', 'Reinforcement-Learning', 'deepchem', 'TNN', 'Deep_reinforcement_learning_Course', 'Deep-Learning-Roadmap', 'Deep-Learning-in-Production', 'deep-person-reid', 'deep-learning-papers', 'ArtLine', 'deep-learning-model-convertor', 'dlwpt-code', 'Artificial-Intelligence-Deep-Learning-Machine-Learning-Tutorials', 'DeepLearning', 'LiteratureDL4Graph', 'open_model_zoo', 'deep-learning-keras-tensorflow', 'TTS', 'DeepQA', 'oneflow', 'catalyst', 'kaolin', 'MachineLearningNotebooks', 'nlp-architect', 'deepjazz', 'deep-learning-book', 'euler', 'layout-parser', 'deep-text-recognition-benchmark', 'pytorch-a2c-ppo-acktr-gail', 'porcupine', 'DeepLabCut', 'Deep-Learning-for-Recommendation-Systems', 'awesome-deeplearning-resources', 'interactive-deep-colorization', 'singa', 'awesome-satellite-imagery-datasets', 'thinc', 'luminoth', 'imgclsmob', 'TensorFlow-and-DeepLearning-Tutorial', 'gluon-api', 'Girls-In-AI', 'deepdetect', 'awesome-deep-text-detection-recognition', 'code-of-learn-deep-learning-with-pytorch', 'DouZero', 'djl', 'awesome-deep-learning-music', 'pointnet2', 'DeepRL-Agents', 'tensorflow-speech-recognition', 'zhusuan', 'deep-learning-with-keras-notebooks', 'kcws', 'awesome-image-classification', 'satellite-image-deep-learning', 'ICCV2019-LearningToPaint', 'Deep-Learning-with-PyTorch-Tutorials', 'Deep-Learning-for-Tracking-and-Detection', 'turkce-yapay-zeka-kaynaklari', 'tensorflow_template_application', 'practical-machine-learning-with-python', 'benchm-ml', 'Deep-reinforcement-learning-with-pytorch', 'tensorflow-deep-learning', 'tinyflow', 'DeepLearningImplementations', 'Awesome-AutoDL', 'deepschool.io', 'DeepLearn', 'tensorflow-1.4-billion-password-analysis', 'ml-surveys', 'www.mlcompendium.com', 'DeepCTR-Torch', 'torch-points3d', 'NLP-Models-Tensorflow', 'DeepRecommender', 'Papers-Literature-ML-DL-RL-AI', 'bulbea', 'DeepLearning_tutorials', 'ios-learning-materials', 'deep-rl-tensorflow', 'determined', 'SparrowRecSys', 'HyperLandmark', 'BerryNet', 'deeptraffic', 'elephas', 'ML', 'CADL', 'delta', 'Awesome-Deep-Learning-Resources', 'chainercv', 'GDLnotes', 'Top-Deep-Learning', 'ElegantRL', 'raster-vision', 'grenade', 'Deep-Learning-for-Medical-Applications', 'deeplearning-mindmap', 'DeepAA', 'Neural-Networks-on-Silicon', 'Knet.jl', 'deep-learning-time-series', 'DeepMoji', 'AutoDL-Projects', 'Deep-learning-with-cats', 'petastorm', 'dcgan-completion.tensorflow', 'Getting-Things-Done-with-Pytorch', 'distribution-is-all-you-need', 'Rainbow', 'lectures-labs', 'noreward-rl', 'dl-colab-notebooks', 'Interactive_Tools', 'torchio', 'AI-Chip', 'dl-visuals', 'deep-review', 'Personae', 'deep-head-pose', 'nlp_overview', 'Repo-2017', 'Advanced-Deep-Learning-with-Keras', 'fastai_deeplearn_part1', 'Deep-Tutorials-for-PyTorch', 'SoTA-Point-Cloud', 'Face-Mask-Detection', 'Research', 'deep-q-learning', 'Deep-Learning', 'DFace', 'fsdl-text-recognizer-project', 'awesome-DeepLearning', 'DeepRec', 'text_renderer', 'ILearnDeepLearning.py', 'DnCNN', 'tsai', 'chainerrl', 'DeepAudioClassification', 'Deep-Learning-Book-Chapter-Summaries', 'SLM-Lab', 'DLInterview', 'service-streamer', 'awesome-ai-ml-dl', 'morph-net', 'PyRetri', 'Deep-Learning-TensorFlow', 'DIG', 'yt-channels-DS-AI-ML-CS', 'pytorch-a3c', 'dl-4-tsc', 'AutoDL', 'ktrain', 'Deep-Reinforcement-Learning-for-Automated-Stock-Trading-Ensemble-Strategy-ICAIF-2020', 'variational-autoencoder', 'Deep-Learning-Experiments', 'NYU-DLSP21', 'DL-workshop-series', 'Arraymancer', 'neuropod', 'cogdl', 'hivemind', 'Andrew-Ng-Deep-Learning-notes', 'RecSys2019_DeepLearning_Evaluation', 'btgym', 'deep-motion-editing', 'DeepTables', 'STT', 'gans-in-action', 'DeepCamera', 'DeepRL-Tutorials', 'torchMoji', 'MedicalZooPytorch', 'AdderNet', 'labml', 'kur', 'Coloring-greyscale-images', 'Deep-Learning-Project-Template', 'flow-forecast', 'cifar-10-cnn', 'BMW-TensorFlow-Training-GUI', 'decord', 'Speech-Emotion-Analyzer', 'awesome-deep-trading', 'swift-apis', 'deep_learning_and_the_game_of_go', 'pytorch-rl', 'awesome-tensor-compilers', 'PassGAN', 'HRNet-Facial-Landmark-Detection', 'DeepLearning.scala', 'PyTorch-RL', 'tensorflow-tutorial', 'tensorflow-101', 'pysc2-examples', 'deepxde', 'deepforge', 'course-gitbook', 'intro-to-dl', 'Text-Classification-Pytorch', 'tez', 'coursera-deep-learning-specialization', '3D-convolutional-speaker-recognition', 'Deep-Learning-For-Hackers', 'RLSeq2Seq', 'Deep_Metric', 'AI-Series', 'Hands-On-Reinforcement-Learning-With-Python', 'pytorch-widedeep', 'DL-NLP-Readings', 'KotlinDL', 'DSOD', 'DeepJ', 'ufldl_tutorial', 'china-dictatorship', 'course20', 'deep-learning-guide', 'CS224n', 'food-101-keras', 'TonY', 'neoml', 'FfDL', 'deepmd-kit', 'bolt', 'dcscn-super-resolution', 'NeuralDialogPapers', 'RedisAI', 'interview-questions', 'elasticdl', 'Deep-Learning-with-PyTorch-Chinese', 'awesome-neural-ode', 'deep-learning-from-scratch', 'deep-trading-agent', 'dll', 'dist-keras', 'bdl-benchmarks', 'mario-ai', 'music-generation-with-DL', 'webdataset', 'visual-pushing-grasping', 'libxsmm', 'BMW-YOLOv4-Training-Automation', 'Emotion-detection', 'async_deep_reinforce', 'awesome-emdl', 'How-to-learn-Deep-Learning', 'CryptocurrencyPrediction', 'cleanrl', 'Trending-Deep-Learning', 'VTuber_Unity', 'SiamTrackers', 'papers', 'notebooks', 'Awesome-Cybersecurity-Datasets', 'faced', 'alfred', 'Learning-Deep-Learning', 'music_recommender', 'blitz-bayesian-deep-learning', 'TF-Tutorials', 'deep-learning-book', 'Awsome-Deep-Learning-for-Video-Analysis', 'reaver', 'awesome_deep_learning_interpretability', 'dlwin', 'PaddleVideo', 'deepsvg', 'Practical-Deep-Learning-Book', 'autonomous-learning-library', 'chainer-chemistry', 'Deep-Metric-Learning-Baselines', 'deep-learning-bitcoin', 'UCR_Time_Series_Classification_Deep_Learning_Baseline', 'T2F', 'Awesome-Image-Colorization', 'monk_v1', 'IRCNN', 'Awesome-Deep-Learning-Papers-for-Search-Recommendation-Advertising', 'doctr', 'deep-learning-resources', 'TASO', 'SOD-CNNs-based-code-summary-', 'DeepPurpose', 'sktime-dl', 'NeuralPDE.jl', 'pytorch_tabular', 'Neuraxle', 'Federated-Learning-PyTorch', 'reinforcement-learning-algorithms', 'Forward', 'X2Paddle', 'Fast-SRGAN', 'rl-portfolio-management', 'torch-light', 'PyTorch', 'DeepHash', 'deep-learning-traffic-lights', 'Urban-Sound-Classification', 'Adlik', 'crypto-rl', 'torchdistill', 'code_search', 'DeepDarkFantasy', 'deer', 'deep-transfer-learning', 'Deep-Learning-Paper-Review-and-Practice', 'rhino', 'deep-learning-from-scratch-3', 'bayes-nn', 'ReID-Survey', 'deep-learning-wizard', 'awesome-very-deep-learning', 'Sequence-Semantic-Embedding', 'Deep-Learning-Machine-Learning-Stock', 'deepstock', 'deepdow', 'NLP_Quickbook', 'octnet', 'pvcnn', 'Change-Detection-Review', 'nncase', 'FastAI.jl', '3D-Deepbox', 'Deep-learning-in-cloud', 'Flappy-bird-deep-Q-learning-pytorch', 'cheetah', 'Deep-Reinforcement-Learning-Survey', 'deep_learning_NLP', 'cn-deep-learning', 'DeepPath', 'DeepLearningProjectWorkflow', 'huskarl', 'OpenChem', 'DeepRL-TensorFlow2', 'fire-detection-cnn', 'detection-2016-nipsws', 'dl_tutorials_10weeks', 'interactive-machine-learning-list', 'bayesian-neural-network-blogpost', 'pytorch-rl', 'trading-bot', 'deep-learning-uncertainty', 'First-steps-towards-Deep-Learning', 'ConvNetSharp', 'spotty', 'd3rlpy', 'DRBox', 'pulp-dronet', 'gdrl', 'megvii-pku-dl-course', 'deep-learning-localization-mapping', 'deep_rl', 'OpenLearning4DeepRecsys', 'useR-machine-learning-tutorial', 'Deep-Learning-Tricks', 'DeepTraffic', 'Easy-deep-learning-with-Keras', 'Coursera-Deep-Learning-deeplearning.ai', 'deep-learning-nano-foundation', 'InnerEye-DeepLearning', '3D-Reconstruction-with-Deep-Learning-Methods', 'yoloface', 'pcam', 'irl-imitation', 'tf_chatbot_seq2seq_antilm', 'RL-Chatbot', 'tensorboard', 'DeepXi', 'deepsnap', 'pycadl', 'onyx', 'Tetris-deep-Q-learning-pytorch', 'magnet', 'SiaNet', 'Ensemble-Pytorch', 'carefree-learn', 'Emotion', 'deep-active-learning', 'artificio', 'tflite_gles_app', 'Deep-Learning', 'flowpoints_ml', 'awesome-computer-vision-models', 'powerful-benchmarker', 'qkeras', 'DeepReg', 'pytorch-vsumm-reinforce', 'Audio-Classification', 'pytorch-nlp-notebooks', 'rl4j', 'SODsurvey', 'PaddleHelix', '300Days__MachineLearningDeepLearning', 'NLP101', 'jeelizAR', 'deepC', 'DeepLearningNotes', 'hyperboard', 'tensorflow-resources', 'awesome-ehr-deeplearning', 'CNTK-World', 'CodeFun', 'torchsat', 'dlcampjeju', 'amazon-rekognition-video-analyzer', 'deep-diamond', 'deepkit-ml', 'handful-of-trials', 'models', 'delft', 'dliss-tutorial', 'framework-determinism', 'norse', 'vime', 'Depth-VO-Feat', 'DnCNN-tensorflow', 'Awesome-Distributed-Deep-Learning', 'DeepHash-Papers', 'keras-multiprocess-image-data-generator', 'tensorflow-image-detection', 'Speech-enhancement', 'uvadlc_notebooks', 'deep-learning-containers', 'pytorch-dqn', 'sednn', 'BitcoinForecast', 'BayesianDeepLearning-Survey', 'Xvision', 'LanczosNetwork', 'thinking-in-tensors-writing-in-pytorch', 'AgentNet', 'awesome-deep-rl', 'DeepPoseKit', 'elegy', 'tensorflow-gpu-install-ubuntu-16.04', 'selene', 'deepnet', 'deep-learning-nlp-rl-papers', 'Hands-On-Deep-Learning-Algorithms-with-Python', 'MyDeepLearning', 'pytorch-DRL', 'Deep-Reinforcement-Learning-Algorithms', 'deep-rl', 'DREAMPlace', 'MusicGenerator', 'Jupyter', 'DeepPiCar', 'DeepLearningWithTF2.0', 'L2C', 'Deep_White_Balance']</t>
+  </si>
+  <si>
+    <t>['caffe', 'Deep-Learning-Papers-Reading-Roadmap', 'data-science-ipython-notebooks', 'Production-Level-Deep-Learning', 'DeepLearningForNLPInPytorch', 'DLTK', 'Deep3DFaceReconstruction', 'deep-ctr-prediction', 'Hyperparameter-Optimization-of-Machine-Learning-Algorithms']</t>
+  </si>
+  <si>
+    <t>['Deep-Learning-In-Production', 'Daily-DeepLearning', 'Deep-Learning-NLP', 'RMDL', 'EEG-DL']</t>
+  </si>
+  <si>
+    <t>['Dataset_Synthesizer', 'ColossalAI', 'Basic-Mathematics-for-Machine-Learning', 'pyvarinf', 'rlgraph']</t>
+  </si>
+  <si>
+    <t>['hedwig', 'natural-language-processing', 'torch-audiomentations', 'CrowdNav', 'Time-series---deep-learning---state-of-the-art']</t>
+  </si>
+  <si>
+    <t>['ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK']</t>
+  </si>
+  <si>
+    <t>['Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition', 'Car-Recognition']</t>
   </si>
   <si>
     <t>['atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas', 'atlas']</t>
   </si>
   <si>
+    <t>['Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples']</t>
+  </si>
+  <si>
     <t>['deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading', 'deep-RL-trading']</t>
   </si>
   <si>
-    <t>['Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance', 'Deep_White_Balance']</t>
-  </si>
-  <si>
-    <t>['ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK', 'ultimateALPR-SDK']</t>
-  </si>
-  <si>
-    <t>['Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples', 'Deep_learning_examples']</t>
+    <t>['mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet']</t>
+  </si>
+  <si>
+    <t>['DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner']</t>
   </si>
   <si>
     <t>['deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes', 'deeplearning.ai-notes']</t>
   </si>
   <si>
-    <t>['mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet', 'mentornet']</t>
-  </si>
-  <si>
     <t>['book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source', 'book_DeepLearning_in_PyTorch_Source']</t>
   </si>
   <si>
     <t>['Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT', 'Caffe-HRT']</t>
   </si>
   <si>
+    <t>['GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT']</t>
+  </si>
+  <si>
     <t>['vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel', 'vel']</t>
   </si>
   <si>
+    <t>['mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace']</t>
+  </si>
+  <si>
     <t>['xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke', 'xshinnosuke']</t>
   </si>
   <si>
-    <t>['GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT', 'GraphSAINT']</t>
+    <t>['ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository']</t>
   </si>
   <si>
     <t>['LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX', 'LearningX']</t>
   </si>
   <si>
-    <t>['DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner', 'DeepPruner']</t>
-  </si>
-  <si>
     <t>['DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges', 'DeepLearning-Challenges']</t>
   </si>
   <si>
-    <t>['mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace', 'mlspace']</t>
-  </si>
-  <si>
-    <t>['ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository', 'ChangeDetectionRepository']</t>
-  </si>
-  <si>
     <t>['end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv', 'end2end-all-conv']</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>['RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague', 'RoboLeague']</t>
   </si>
   <si>
+    <t>['wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep']</t>
+  </si>
+  <si>
     <t>['source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation', 'source_separation']</t>
   </si>
   <si>
@@ -106,16 +118,16 @@
     <t>['gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli', 'gobbli']</t>
   </si>
   <si>
+    <t>['masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif']</t>
+  </si>
+  <si>
     <t>['ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects', 'ros_robotics_projects']</t>
   </si>
   <si>
-    <t>['wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep', 'wide_deep']</t>
-  </si>
-  <si>
     <t>['deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn', 'deeplearning-cfn']</t>
   </si>
   <si>
-    <t>['masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif', 'masif']</t>
+    <t>['windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon']</t>
   </si>
   <si>
     <t>['dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries', 'dawn-bench-entries']</t>
@@ -127,15 +139,12 @@
     <t>['Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers', 'Good-Papers']</t>
   </si>
   <si>
-    <t>['windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon', 'windy-afternoon']</t>
+    <t>['ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens']</t>
   </si>
   <si>
     <t>['osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper', 'osumapper']</t>
   </si>
   <si>
-    <t>['ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens', 'ravens']</t>
-  </si>
-  <si>
     <t>['Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning', 'Clustering-with-Deep-learning']</t>
   </si>
   <si>
@@ -151,6 +160,15 @@
     <t>['MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow', 'MatrixSlow']</t>
   </si>
   <si>
+    <t>['seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning']</t>
+  </si>
+  <si>
+    <t>['DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch']</t>
+  </si>
+  <si>
+    <t>['LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet']</t>
+  </si>
+  <si>
     <t>['GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl', 'GeometricFlux.jl']</t>
   </si>
   <si>
@@ -163,21 +181,15 @@
     <t>['arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision', 'arc-robot-vision']</t>
   </si>
   <si>
-    <t>['seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning', 'seismic-deeplearning']</t>
-  </si>
-  <si>
-    <t>['DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch', 'DeepInfomaxPytorch']</t>
-  </si>
-  <si>
-    <t>['LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet', 'LightNet']</t>
-  </si>
-  <si>
     <t>['Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish', 'Deep-Learning-Papers-for-Fish']</t>
   </si>
   <si>
     <t>['dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial', 'dl_tutorial']</t>
   </si>
   <si>
+    <t>['neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor']</t>
+  </si>
+  <si>
     <t>['DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes', 'DeepLearningCourseCodes']</t>
   </si>
   <si>
@@ -190,21 +202,30 @@
     <t>['DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR', 'DeCLUTR']</t>
   </si>
   <si>
+    <t>['spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly']</t>
+  </si>
+  <si>
+    <t>['Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python']</t>
+  </si>
+  <si>
     <t>['Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder', 'Deep-Learning-Tinder']</t>
   </si>
   <si>
-    <t>['Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python', 'Deep-learning-with-Python']</t>
+    <t>['PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template']</t>
   </si>
   <si>
     <t>['DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch', 'DeepResearch']</t>
   </si>
   <si>
-    <t>['PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template', 'PyTorch-Deep-Learning-Template']</t>
+    <t>['ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot']</t>
   </si>
   <si>
     <t>['remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning', 'remote-sensing-deep-learning']</t>
   </si>
   <si>
+    <t>['adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl']</t>
+  </si>
+  <si>
     <t>['wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch', 'wildcat.pytorch']</t>
   </si>
   <si>
@@ -214,22 +235,13 @@
     <t>['ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder', 'ladder']</t>
   </si>
   <si>
-    <t>['adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl', 'adaptdl']</t>
-  </si>
-  <si>
-    <t>['spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly', 'spikingjelly']</t>
-  </si>
-  <si>
-    <t>['neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor', 'neural-compressor']</t>
-  </si>
-  <si>
-    <t>['ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot', 'ksql-udf-deep-learning-mqtt-iot']</t>
+    <t>['keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp']</t>
   </si>
   <si>
     <t>['InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2', 'InstanceSegmentation_Sentinel2']</t>
   </si>
   <si>
-    <t>['keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp', 'keras-sharp']</t>
+    <t>['Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning']</t>
   </si>
   <si>
     <t>['PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL', 'PokerRL']</t>
@@ -238,66 +250,72 @@
     <t>['gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn', 'gordon_cnn']</t>
   </si>
   <si>
-    <t>['Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning', 'Awsome_Deep_Geometry_Learning']</t>
-  </si>
-  <si>
-    <t>[(' deep-learning', 309), (' machine-learning', 212), (' tensorflow', 151), (' pytorch', 148), ('deep-learning', 133), (' python', 99), (' neural-network', 73), (' reinforcement-learning', 63), (' keras', 58), (' deep-neural-networks', 52), (' neural-networks', 47), (' deep-reinforcement-learning', 47), (' nlp', 39), (' natural-language-processing', 31), (' computer-vision', 31)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 11), (' machine-learning', 4), (' deep-reinforcement-learning', 3), (' deep-neural-networks', 2), (' deep-learning', 2), ('data', 1), (' data-science', 1), (' genetic-algorithm', 1), (' machine-learning-from-scratch', 1), ('algorithm', 1), (' interview-questions', 1), (' natural-language-processing', 1), (' neural-networks', 1)]</t>
+    <t>[(' deep-learning', 299), (' machine-learning', 204), (' tensorflow', 143), (' pytorch', 142), ('deep-learning', 135), (' python', 93), (' neural-network', 70), (' reinforcement-learning', 61), (' keras', 56), (' deep-neural-networks', 52), (' deep-reinforcement-learning', 49), (' neural-networks', 46), (' nlp', 37), (' computer-vision', 31), (' deeplearning', 30)]</t>
+  </si>
+  <si>
+    <t>[(' machine-learning', 5), (' deep-learning', 4), ('deep-learning', 3), (' tensorflow', 3), (' data-science', 2), (' python', 2), (' neural-network', 2), (' vision', 1), ('aws', 1), (' big-data', 1), (' caffe', 1), (' hadoop', 1), (' kaggle', 1), (' keras', 1), (' mapreduce', 1)]</t>
+  </si>
+  <si>
+    <t>[(' tensorflow', 4), (' deep-learning', 3), (' machine-learning', 3), (' python', 2), ('deep-learning', 2), (' cnn', 2), (' rnn', 2), ('ai', 1), (' cloud', 1), (' deeplearning', 1), (' deployment', 1), (' machinelearningproject', 1), (' neural-network', 1), (' production', 1), (' semantic-segmentation', 1)]</t>
+  </si>
+  <si>
+    <t>[(' deep-learning', 3), (' machine-learning', 2), (' pytorch', 2), ('computer-vision', 1), (' domain-randomization', 1), (' object-detection', 1), (' pose-estimation', 1), (' synthetic-dataset-generation', 1), ('data-parallelism', 1), (' distributed-training', 1), (' hpc', 1), (' large-scale', 1), (' model-parallelism', 1), (' pipeline-parallelism', 1), ('ai', 1)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 3), (' pytorch', 2), (' machine-learning', 2), (' document-classification', 1), (' glove', 1), (' natural-language-processing', 1), (' word2vec', 1), ('audio', 1), (' audio-data-augmentation', 1), (' audio-effects', 1), (' augmentation', 1), (' data-augmentation', 1), (' deep-learning', 1), (' differentiable-data-augmentation', 1), (' dsp', 1)]</t>
+  </si>
+  <si>
+    <t>[('alpr', 91), (' android', 91), (' anpr', 91), (' anpr-sdk', 91), (' artificial-intelligence', 91), (' deep-learning', 91), (' jetson', 91), (' jetson-nano', 91), (' jetson-tx2', 91), (' license-plate', 91), (' license-plate-detection', 91), (' license-plate-recognition', 91), (' linux', 91), (' machine-learning', 91), (' openvino', 91)]</t>
+  </si>
+  <si>
+    <t>[('computer-vision', 91), (' deep-learning', 91)]</t>
   </si>
   <si>
     <t>[('ai', 91), (' artificial-intelligence', 91), (' data-science', 91), (' deep-learning', 91), (' gpu', 91), (' machine-learning', 91), (' ml', 91), (' model-management', 91), (' python', 91)]</t>
   </si>
   <si>
+    <t>[('bioinformatics', 91), (' deep-learning', 91)]</t>
+  </si>
+  <si>
     <t>[('deep-learning', 91), (' deep-reinforcement-learning', 91), (' dqn', 91), (' machine-learning', 91), (' neural-network', 91), (' q-learning', 91), (' quantitative-trading', 91), (' reinforcement-learning', 91), (' stock', 91), (' stock-market', 91), (' time-series', 91), (' trading', 91)]</t>
   </si>
   <si>
-    <t>[('auto-encoder', 91), (' auto-white-balance', 91), (' autoencoder', 91), (' color-constancy', 91), (' color-correction', 91), (' color-enhancement', 91), (' color-manipulation', 91), (' color-processing', 91), (' computational-photography', 91), (' cvpr-2020', 91), (' cvpr20', 91), (' cvpr2020', 91), (' deep-white-balance', 91), (' deeplearning', 91), (' image-enhancement', 91)]</t>
-  </si>
-  <si>
-    <t>[('alpr', 91), (' android', 91), (' anpr', 91), (' anpr-sdk', 91), (' artificial-intelligence', 91), (' deep-learning', 91), (' jetson', 91), (' jetson-nano', 91), (' jetson-tx2', 91), (' license-plate', 91), (' license-plate-detection', 91), (' license-plate-recognition', 91), (' linux', 91), (' machine-learning', 91), (' openvino', 91)]</t>
-  </si>
-  <si>
-    <t>[('bioinformatics', 91), (' deep-learning', 91)]</t>
+    <t>[('deep-learning', 91), (' google', 91), (' label', 91), (' noisy', 91), (' noisy-data', 91)]</t>
+  </si>
+  <si>
+    <t>[('iccv2019', 91), (' patchmatch', 91), (' pytorch', 91), (' real-time', 91), (' stereo-matching', 91), (' stereo-vision', 91)]</t>
   </si>
   <si>
     <t>[('deep-learning', 91), (' deep-learning-tutorial', 91), (' hyperparameter-tuning', 91), (' machine-learning', 91), (' neural-networks', 91), (' optimization', 91), (' programming', 91)]</t>
   </si>
   <si>
-    <t>[('deep-learning', 91), (' google', 91), (' label', 91), (' noisy', 91), (' noisy-data', 91)]</t>
-  </si>
-  <si>
     <t>[('cnn-for-visual-recognition', 91), (' gans', 91), (' pytorch-tutorial', 91), (' rnn-pytorch', 91), (' word2vec', 91)]</t>
   </si>
   <si>
     <t>[('arm', 91), (' arm-compute-library', 91), (' arm-gpu', 91), (' arm-neon', 91), (' artificial-intelligence', 91), (' caffe', 91), (' cnn', 91), (' dnn', 91), (' machine-learning', 91)]</t>
   </si>
   <si>
+    <t>[('gat', 91), (' gcn', 91), (' graph-sampling', 91), (' graphsage', 91), (' iclr', 91), (' ipdps', 91), (' jk-net', 91)]</t>
+  </si>
+  <si>
     <t>[('convolutional-neural-networks', 91), (' deep-learning', 91), (' python', 91), (' pytorch', 91), (' reinforcement-learning', 91)]</t>
   </si>
   <si>
+    <t>[('code-server', 91), (' cuda', 91), (' cudnn', 91), (' deep-learning', 91), (' docker', 91), (' jupyter', 91), (' machine-learning', 91)]</t>
+  </si>
+  <si>
     <t>[('cupy', 91), (' deeplearning', 91), (' keras-style', 91), (' numpy', 91), (' pytorch-style', 91)]</t>
   </si>
   <si>
-    <t>[('gat', 91), (' gcn', 91), (' graph-sampling', 91), (' graphsage', 91), (' iclr', 91), (' ipdps', 91), (' jk-net', 91)]</t>
+    <t>[('change-detection', 91), (' deep-learning', 91), (' image-processing', 91), (' multi-temporal', 91), (' python', 91), (' remote-sensing', 91)]</t>
   </si>
   <si>
     <t>[('agent', 91), (' data-science', 91), (' deep', 91), (' deep-learning', 91), (' deep-reinforcement-learning', 91), (' examples', 91), (' learning', 91), (' machine-learning', 91), (' machine-learning-algorithms', 91), (' multiagent-reinforcement-learning', 91), (' neural-network', 91), (' optimization', 91), (' python', 91), (' q-learning', 91), (' reinforcement-learning', 91)]</t>
   </si>
   <si>
-    <t>[('iccv2019', 91), (' patchmatch', 91), (' pytorch', 91), (' real-time', 91), (' stereo-matching', 91), (' stereo-vision', 91)]</t>
-  </si>
-  <si>
     <t>[('computer-vision', 91), (' deep-learning', 91), (' machine-learning', 91), (' neural-networks', 91)]</t>
   </si>
   <si>
-    <t>[('code-server', 91), (' cuda', 91), (' cudnn', 91), (' deep-learning', 91), (' docker', 91), (' jupyter', 91), (' machine-learning', 91)]</t>
-  </si>
-  <si>
-    <t>[('change-detection', 91), (' deep-learning', 91), (' image-processing', 91), (' multi-temporal', 91), (' python', 91), (' remote-sensing', 91)]</t>
-  </si>
-  <si>
     <t>[('cancer-imaging-research', 91), (' deep-learning', 91), (' machine-learning', 91)]</t>
   </si>
   <si>
@@ -310,6 +328,9 @@
     <t>[('car-physics', 91), (' deep-reinforcement-learning', 91), (' mlagent', 91), (' mlagents', 91), (' reinforcement-learning', 91), (' reinforcement-learning-environments', 91), (' rocket-league', 91), (' rocketleague', 91), (' unity', 91), (' unity-ml', 91), (' unity-ml-agents', 91), (' unity3d', 91), (' unityml', 91)]</t>
   </si>
   <si>
+    <t>[('ctr-prediction', 91), (' tensorflow', 91), (' wide-and-deep', 91)]</t>
+  </si>
+  <si>
     <t>[('audio', 91), (' deep-learning', 91), (' pytorch', 91), (' source-separation', 91), (' speech', 91), (' speech-separation', 91)]</t>
   </si>
   <si>
@@ -319,16 +340,16 @@
     <t>[('deep-learning', 91), (' docker', 91), (' nlp', 91), (' python', 91)]</t>
   </si>
   <si>
+    <t>[('geometric-deep-learning', 91), (' molecular-surface', 91), (' protein-surface', 91)]</t>
+  </si>
+  <si>
     <t>[('deep', 91), (' face', 91), (' learning', 91), (' operating', 91), (' reality', 91), (' robot', 91), (' robotics', 91), (' ros', 91), (' rosmatlab', 91), (' self-driving-car', 91), (' system', 91), (' tracking', 91), (' virtual', 91)]</t>
   </si>
   <si>
-    <t>[('ctr-prediction', 91), (' tensorflow', 91), (' wide-and-deep', 91)]</t>
-  </si>
-  <si>
     <t>[('aws', 91), (' aws-cloudformation', 91), (' deep-learning-ami', 91), (' deeplearning', 91), (' distributed-training', 91), (' ec2-instance', 91), (' mxnet', 91), (' tensorflow', 91)]</t>
   </si>
   <si>
-    <t>[('geometric-deep-learning', 91), (' molecular-surface', 91), (' protein-surface', 91)]</t>
+    <t>[('android', 91), (' linux', 91), (' machine-learning', 91), (' ubuntu', 91)]</t>
   </si>
   <si>
     <t>[('cifar10', 91), (' deeplearning', 91), (' imagenet', 91), (' inference', 91), (' squad', 91), (' training', 91)]</t>
@@ -340,15 +361,12 @@
     <t>[('computer-vision', 91), (' convolutional-networks', 91), (' deep-kernel-learning', 91), (' deep-learning', 91), (' gaussian-processes', 91), (' kernel-learning', 91), (' machine-learning', 91), (' natural-language-processing', 91), (' neural-machine-translation', 91), (' neural-network', 91), (' representation-learning', 91), (' semi-supervised-learning', 91), (' variational-autoencoders', 91), (' variational-inference', 91)]</t>
   </si>
   <si>
-    <t>[('android', 91), (' linux', 91), (' machine-learning', 91), (' ubuntu', 91)]</t>
+    <t>[('artificial-intelligence', 91), (' computer-vision', 91), (' deep-learning', 91), (' imitation-learning', 91), (' manipulation', 91), (' openai-gym', 91), (' pick-and-place', 91), (' pybullet', 91), (' rearrangement', 91), (' reinforcement-learning', 91), (' robotics', 91), (' tensorflow', 91), (' transporter-nets', 91), (' vision', 91)]</t>
   </si>
   <si>
     <t>[('music-game', 91), (' nodejs', 91), (' osu', 91), (' python', 91), (' tensorflow', 91)]</t>
   </si>
   <si>
-    <t>[('artificial-intelligence', 91), (' computer-vision', 91), (' deep-learning', 91), (' imitation-learning', 91), (' manipulation', 91), (' openai-gym', 91), (' pick-and-place', 91), (' pybullet', 91), (' rearrangement', 91), (' reinforcement-learning', 91), (' robotics', 91), (' tensorflow', 91), (' transporter-nets', 91), (' vision', 91)]</t>
-  </si>
-  <si>
     <t>[('clustering', 91), (' deep-learning', 91), (' machine-learning', 91)]</t>
   </si>
   <si>
@@ -364,6 +382,15 @@
     <t>[('book', 91), (' deep-learning', 91), (' framework', 91), (' python', 91)]</t>
   </si>
   <si>
+    <t>[('computer-vision', 91), (' deep-learning', 91), (' microsoft', 91), (' neural-networks', 91), (' segmentation', 91), (' seismic', 91), (' seismic-data', 91), (' seismic-imaging', 91), (' seismic-inversion', 91), (' seismic-processing', 91)]</t>
+  </si>
+  <si>
+    <t>[('autoencoder', 91), (' compression', 91), (' deep-learning', 91), (' pytorch', 91)]</t>
+  </si>
+  <si>
+    <t>[('cnn', 91), (' cudnn', 91), (' deep-learning', 91), (' lstm', 91), (' matlab', 91), (' mlp', 91), (' neural-network', 91), (' quasi-recurrent-neural-networks', 91), (' rnn', 91), (' sgd', 91)]</t>
+  </si>
+  <si>
     <t>[('deep-learning', 91), (' flux', 91), (' geometric-deep-learning', 91), (' graph-neural-networks', 91), (' juliagraphs', 91), (' machine-learning', 91)]</t>
   </si>
   <si>
@@ -376,21 +403,15 @@
     <t>[('3d', 91), (' amazon-robotics-challenge', 91), (' artificial-intelligence', 91), (' computer-vision', 91), (' deep-learning', 91), (' grasping', 91), (' manipulation', 91), (' mit-princeton', 91), (' rgbd', 91), (' vision', 91)]</t>
   </si>
   <si>
-    <t>[('computer-vision', 91), (' deep-learning', 91), (' microsoft', 91), (' neural-networks', 91), (' segmentation', 91), (' seismic', 91), (' seismic-data', 91), (' seismic-imaging', 91), (' seismic-inversion', 91), (' seismic-processing', 91)]</t>
-  </si>
-  <si>
-    <t>[('autoencoder', 91), (' compression', 91), (' deep-learning', 91), (' pytorch', 91)]</t>
-  </si>
-  <si>
-    <t>[('cnn', 91), (' cudnn', 91), (' deep-learning', 91), (' lstm', 91), (' matlab', 91), (' mlp', 91), (' neural-network', 91), (' quasi-recurrent-neural-networks', 91), (' rnn', 91), (' sgd', 91)]</t>
-  </si>
-  <si>
     <t>[('deep-learning', 91), (' neural-network', 91), (' papers', 91)]</t>
   </si>
   <si>
     <t>[('deep-learning', 91), (' tutorial', 91)]</t>
   </si>
   <si>
+    <t>[('auto-tuning', 91), (' knowledge-distillation', 91), (' low-precision', 91), (' post-training-quantization', 91), (' pruning', 91), (' quantization', 91), (' quantization-aware-training', 91), (' sparsity', 91)]</t>
+  </si>
+  <si>
     <t>[('deep-learning', 91), (' pytorch', 91), (' tensorflow', 91), (' tutorial', 91)]</t>
   </si>
   <si>
@@ -403,21 +424,30 @@
     <t>[('allennlp', 91), (' contrastive-learning', 91), (' metric-learning', 91), (' natural-language-processing', 91), (' pytorch', 91), (' representation-learning', 91), (' self-supervised-learning', 91), (' semantic-search', 91), (' semantic-text-similarity', 91), (' sentence-embeddings', 91), (' sentence-similarity', 91), (' transformers', 91)]</t>
   </si>
   <si>
+    <t>[('deep-learning', 91), (' machine-learning', 91), (' pytorch', 91), (' snn', 91), (' spiking-neural-networks', 91)]</t>
+  </si>
+  <si>
+    <t>[('artificial-intelligence', 91), (' cnn', 91), (' computer-vision', 91), (' convolutional-neural-networks', 91), (' deep-learning', 91), (' generative-adversarial-network', 91), (' google-colab', 91), (' image-classification', 91), (' keras', 91), (' machine-learning', 91), (' neural-networks', 91), (' object-detection', 91), (' recurrent-neural-networks', 91), (' resnet', 91), (' rnn', 91)]</t>
+  </si>
+  <si>
     <t>[('deep-learning', 91), (' machine-learning', 91), (' tinder', 91)]</t>
   </si>
   <si>
-    <t>[('artificial-intelligence', 91), (' cnn', 91), (' computer-vision', 91), (' convolutional-neural-networks', 91), (' deep-learning', 91), (' generative-adversarial-network', 91), (' google-colab', 91), (' image-classification', 91), (' keras', 91), (' machine-learning', 91), (' neural-networks', 91), (' object-detection', 91), (' recurrent-neural-networks', 91), (' resnet', 91), (' rnn', 91)]</t>
+    <t>[('computer-vision', 91), (' deep-learning', 91), (' python', 91), (' pytorch', 91)]</t>
   </si>
   <si>
     <t>[('computer-vision', 91), (' deep-learning', 91), (' keras', 91), (' machine-learning', 91), (' nlp', 91), (' nueral-networks', 91), (' python3', 91), (' research-paper', 91)]</t>
   </si>
   <si>
-    <t>[('computer-vision', 91), (' deep-learning', 91), (' python', 91), (' pytorch', 91)]</t>
+    <t>[('confluent', 91), (' confluent-platform', 91), (' deep-learning', 91), (' h2oai', 91), (' java', 91), (' kafka', 91), (' kafka-client', 91), (' kafka-connect', 91), (' ksql', 91), (' machine-learning', 91), (' mqtt', 91), (' open-source', 91), (' tensorflow', 91)]</t>
   </si>
   <si>
     <t>[('deep-learning', 91), (' detection', 91), (' object-detection', 91), (' remote-sensing', 91), (' satellite-imagery', 91), (' segmentation', 91), (' tensorflow', 91)]</t>
   </si>
   <si>
+    <t>[('aws', 91), (' cloud', 91), (' deep-learning', 91), (' distributed-systems', 91), (' distributed-training', 91), (' kubernetes', 91), (' machine-learning', 91), (' pytorch', 91)]</t>
+  </si>
+  <si>
     <t>[('convnet', 91), (' cvpr-2017', 91), (' cvpr17', 91), (' cvpr2017', 91), (' deep-learning', 91), (' image-classification', 91), (' pytorch', 91), (' weakly-supervised-learning', 91)]</t>
   </si>
   <si>
@@ -427,31 +457,19 @@
     <t>[('deep-learning-algorithms', 91), (' ladder-network', 91), (' unsupervised-learning', 91)]</t>
   </si>
   <si>
-    <t>[('aws', 91), (' cloud', 91), (' deep-learning', 91), (' distributed-systems', 91), (' distributed-training', 91), (' kubernetes', 91), (' machine-learning', 91), (' pytorch', 91)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 91), (' machine-learning', 91), (' pytorch', 91), (' snn', 91), (' spiking-neural-networks', 91)]</t>
-  </si>
-  <si>
-    <t>[('auto-tuning', 91), (' knowledge-distillation', 91), (' low-precision', 91), (' post-training-quantization', 91), (' pruning', 91), (' quantization', 91), (' quantization-aware-training', 91), (' sparsity', 91)]</t>
-  </si>
-  <si>
-    <t>[('confluent', 91), (' confluent-platform', 91), (' deep-learning', 91), (' h2oai', 91), (' java', 91), (' kafka', 91), (' kafka-client', 91), (' kafka-connect', 91), (' ksql', 91), (' machine-learning', 91), (' mqtt', 91), (' open-source', 91), (' tensorflow', 91)]</t>
+    <t>[('deep-learning', 91), (' keras', 91), (' machine-learning', 91), (' neural-networks', 91), (' tensorflow', 91)]</t>
   </si>
   <si>
     <t>[('agricultural-fields', 91), (' crop', 91), (' deep-learning', 91), (' earth-observation', 91), (' instance-segmentation', 91), (' remote-sensing', 91), (' satellite-imagery', 91), (' sentinel-2', 91), (' thesis', 91)]</t>
   </si>
   <si>
-    <t>[('deep-learning', 91), (' keras', 91), (' machine-learning', 91), (' neural-networks', 91), (' tensorflow', 91)]</t>
+    <t>[('3d-models', 91), (' 3d-reconstruction', 91), (' 3d-representation', 91), (' 3d-shapes', 91), (' implicit-representions', 91), (' meshes', 91), (' point-cloud', 91), (' primitives', 91), (' shapes-learning', 91), (' voxels', 91)]</t>
   </si>
   <si>
     <t>[('deep-learning', 91), (' framework', 91), (' gym-environment', 91), (' poker', 91), (' ray', 91), (' reinforcement-learning', 91), (' reinforcement-learning-algorithms', 91), (' research', 91)]</t>
   </si>
   <si>
     <t>[('ai', 91), (' cnn', 91), (' cv', 91), (' deeplearning', 91), (' json', 91), (' mnist', 91), (' protobuf', 91)]</t>
-  </si>
-  <si>
-    <t>[('3d-models', 91), (' 3d-reconstruction', 91), (' 3d-representation', 91), (' 3d-shapes', 91), (' implicit-representions', 91), (' meshes', 91), (' point-cloud', 91), (' primitives', 91), (' shapes-learning', 91), (' voxels', 91)]</t>
   </si>
 </sst>
 </file>
@@ -809,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,10 +855,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -851,10 +869,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -865,10 +883,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -879,10 +897,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -893,10 +911,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -910,7 +928,7 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -924,7 +942,7 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -938,7 +956,7 @@
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -952,7 +970,7 @@
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -966,7 +984,7 @@
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -980,7 +998,7 @@
         <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -994,7 +1012,7 @@
         <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1008,7 +1026,7 @@
         <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1022,7 +1040,7 @@
         <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1036,7 +1054,7 @@
         <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1050,7 +1068,7 @@
         <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1064,7 +1082,7 @@
         <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1078,7 +1096,7 @@
         <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1092,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1106,7 +1124,7 @@
         <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1120,7 +1138,7 @@
         <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1134,7 +1152,7 @@
         <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1148,7 +1166,7 @@
         <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1162,7 +1180,7 @@
         <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1176,7 +1194,7 @@
         <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1190,7 +1208,7 @@
         <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1204,7 +1222,7 @@
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1218,7 +1236,7 @@
         <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1232,7 +1250,7 @@
         <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1246,7 +1264,7 @@
         <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1260,7 +1278,7 @@
         <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1274,7 +1292,7 @@
         <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1288,7 +1306,7 @@
         <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1302,7 +1320,7 @@
         <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1316,7 +1334,7 @@
         <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1330,7 +1348,7 @@
         <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1344,7 +1362,7 @@
         <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1358,7 +1376,7 @@
         <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1372,7 +1390,7 @@
         <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1386,7 +1404,7 @@
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1400,7 +1418,7 @@
         <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1414,7 +1432,7 @@
         <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1428,7 +1446,7 @@
         <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1442,7 +1460,7 @@
         <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1456,7 +1474,7 @@
         <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1470,7 +1488,7 @@
         <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1484,7 +1502,7 @@
         <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1498,7 +1516,7 @@
         <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1512,7 +1530,7 @@
         <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1526,7 +1544,7 @@
         <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1540,7 +1558,7 @@
         <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1554,7 +1572,7 @@
         <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1568,7 +1586,7 @@
         <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1582,7 +1600,7 @@
         <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1596,7 +1614,7 @@
         <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1610,7 +1628,7 @@
         <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1624,7 +1642,7 @@
         <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1638,7 +1656,7 @@
         <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1652,7 +1670,7 @@
         <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1666,7 +1684,7 @@
         <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1680,7 +1698,7 @@
         <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1694,7 +1712,7 @@
         <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1708,7 +1726,7 @@
         <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1722,7 +1740,7 @@
         <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1736,7 +1754,7 @@
         <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1750,7 +1768,7 @@
         <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1764,7 +1782,7 @@
         <v>91</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1778,7 +1796,7 @@
         <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1792,7 +1810,7 @@
         <v>91</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1806,7 +1824,7 @@
         <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1820,7 +1838,49 @@
         <v>91</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74">
+        <v>91</v>
+      </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75">
+        <v>91</v>
+      </c>
+      <c r="D75" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
